--- a/新闻资讯/文件/新闻收发基础信息.xlsx
+++ b/新闻资讯/文件/新闻收发基础信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\project\python进阶\表格\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\project\mygithub\新闻资讯\文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449AE8E1-A5FD-4C4E-A7B5-780710C919CE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA26010-41F5-449E-894F-81B6D7ED2E8D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2496" yWindow="1884" windowWidth="17760" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="邮件" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,14 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>guoyqzz@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>601533801@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xxxx（已二次加密写死在程序中，更换登录邮箱需要在代码中更改）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,14 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要发送的微信朋友和微信群名称（有些群如果发送不出时，可以需要更改群设置，打开：保存到通讯录）可以在右侧顺序向下进行添加，注意尽量不要更改此表格格式，让发送的微信朋友和微信群保持在C列和D列，分别限制数量为200个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要发送的邮箱可以在左侧顺序向下进行添加，注意尽量不要更改此表格格式，让发送邮箱保持在B列，限制邮箱数量为200个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登录邮箱（默认）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,7 +87,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间之外</t>
+    <t>abcdef@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xyzlmn@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaaaaa@163.com(基本不变，写死在程序中，需要更改时在程序中更改，与授权码配对)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要发送的邮箱可以在左侧顺序向下进行添加，注意尽量不要更改此表格格式，让发送邮箱保持在B列，限制邮箱数量为200个（可更改）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要发送的微信朋友和微信群名称（有些群如果发送不出时，可以需要更改群设置，打开：保存到通讯录）可以在右侧顺序向下进行添加，注意尽量不要更改此表格格式，让发送的微信朋友和微信群保持在C列和D列，分别限制数量为200个（可更改）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,7 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -379,14 +379,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -443,6 +439,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -728,149 +736,149 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C4" sqref="C4:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.77734375" customWidth="1"/>
-    <col min="2" max="5" width="21.21875" customWidth="1"/>
-    <col min="6" max="6" width="36.21875" customWidth="1"/>
+    <col min="2" max="4" width="21.21875" customWidth="1"/>
+    <col min="5" max="6" width="41.88671875" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>465</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="7">
-        <v>465</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
+      <c r="B4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -893,22 +901,23 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.77734375" customWidth="1"/>
-    <col min="2" max="4" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1"/>
+    <col min="3" max="4" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -918,43 +927,41 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>16</v>
+      <c r="B3" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="24" t="s">
         <v>19</v>
       </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
     </row>
@@ -962,7 +969,7 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
     </row>
@@ -970,7 +977,7 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
     </row>
@@ -978,7 +985,7 @@
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
     </row>
@@ -986,7 +993,7 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
     </row>
@@ -994,7 +1001,7 @@
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="27"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
     </row>
@@ -1002,7 +1009,7 @@
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
     </row>
@@ -1010,7 +1017,7 @@
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
     </row>
